--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pdgfb-Pdgfrb.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pdgfb-Pdgfrb.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>53.435824</v>
+        <v>51.93629233333333</v>
       </c>
       <c r="H2">
-        <v>160.307472</v>
+        <v>155.808877</v>
       </c>
       <c r="I2">
-        <v>0.8055519732580868</v>
+        <v>0.7704232182162135</v>
       </c>
       <c r="J2">
-        <v>0.8055519732580869</v>
+        <v>0.7704232182162134</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.463916</v>
+        <v>8.226724333333333</v>
       </c>
       <c r="N2">
-        <v>70.39174800000001</v>
+        <v>24.680173</v>
       </c>
       <c r="O2">
-        <v>0.1350973942042957</v>
+        <v>0.06198126651953669</v>
       </c>
       <c r="P2">
-        <v>0.1350973942042956</v>
+        <v>0.06198126651953669</v>
       </c>
       <c r="Q2">
-        <v>1253.813685726784</v>
+        <v>427.2655599217468</v>
       </c>
       <c r="R2">
-        <v>11284.32317154106</v>
+        <v>3845.390039295721</v>
       </c>
       <c r="S2">
-        <v>0.108827972483296</v>
+        <v>0.04775180682109831</v>
       </c>
       <c r="T2">
-        <v>0.108827972483296</v>
+        <v>0.0477518068210983</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>53.435824</v>
+        <v>51.93629233333333</v>
       </c>
       <c r="H3">
-        <v>160.307472</v>
+        <v>155.808877</v>
       </c>
       <c r="I3">
-        <v>0.8055519732580868</v>
+        <v>0.7704232182162135</v>
       </c>
       <c r="J3">
-        <v>0.8055519732580869</v>
+        <v>0.7704232182162134</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>263.722283</v>
       </c>
       <c r="O3">
-        <v>0.5061416180048238</v>
+        <v>0.6623065855236785</v>
       </c>
       <c r="P3">
-        <v>0.5061416180048237</v>
+        <v>0.6623065855236785</v>
       </c>
       <c r="Q3">
-        <v>4697.405833088731</v>
+        <v>4565.585861567354</v>
       </c>
       <c r="R3">
-        <v>42276.65249779858</v>
+        <v>41090.27275410619</v>
       </c>
       <c r="S3">
-        <v>0.4077233791318266</v>
+        <v>0.5102563710649443</v>
       </c>
       <c r="T3">
-        <v>0.4077233791318266</v>
+        <v>0.5102563710649441</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>53.435824</v>
+        <v>51.93629233333333</v>
       </c>
       <c r="H4">
-        <v>160.307472</v>
+        <v>155.808877</v>
       </c>
       <c r="I4">
-        <v>0.8055519732580868</v>
+        <v>0.7704232182162135</v>
       </c>
       <c r="J4">
-        <v>0.8055519732580869</v>
+        <v>0.7704232182162134</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>62.24619000000001</v>
+        <v>36.43008433333333</v>
       </c>
       <c r="N4">
-        <v>186.73857</v>
+        <v>109.290253</v>
       </c>
       <c r="O4">
-        <v>0.3583927792848171</v>
+        <v>0.2744692388979848</v>
       </c>
       <c r="P4">
-        <v>0.358392779284817</v>
+        <v>0.2744692388979848</v>
       </c>
       <c r="Q4">
-        <v>3326.17645351056</v>
+        <v>1892.043509663987</v>
       </c>
       <c r="R4">
-        <v>29935.58808159504</v>
+        <v>17028.39158697588</v>
       </c>
       <c r="S4">
-        <v>0.2887040105543344</v>
+        <v>0.2114574743331402</v>
       </c>
       <c r="T4">
-        <v>0.2887040105543344</v>
+        <v>0.2114574743331402</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>53.435824</v>
+        <v>51.93629233333333</v>
       </c>
       <c r="H5">
-        <v>160.307472</v>
+        <v>155.808877</v>
       </c>
       <c r="I5">
-        <v>0.8055519732580868</v>
+        <v>0.7704232182162135</v>
       </c>
       <c r="J5">
-        <v>0.8055519732580869</v>
+        <v>0.7704232182162134</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.06395099999999999</v>
+        <v>0.1649703333333333</v>
       </c>
       <c r="N5">
-        <v>0.191853</v>
+        <v>0.494911</v>
       </c>
       <c r="O5">
-        <v>0.0003682085060634768</v>
+        <v>0.00124290905879997</v>
       </c>
       <c r="P5">
-        <v>0.0003682085060634768</v>
+        <v>0.00124290905879997</v>
       </c>
       <c r="Q5">
-        <v>3.417274380624</v>
+        <v>8.567947458327444</v>
       </c>
       <c r="R5">
-        <v>30.755469425616</v>
+        <v>77.111527124947</v>
       </c>
       <c r="S5">
-        <v>0.000296611088629846</v>
+        <v>0.0009575659970307575</v>
       </c>
       <c r="T5">
-        <v>0.000296611088629846</v>
+        <v>0.0009575659970307574</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.03171066666666667</v>
+        <v>0.03171066666666666</v>
       </c>
       <c r="H6">
-        <v>0.09513200000000001</v>
+        <v>0.09513199999999999</v>
       </c>
       <c r="I6">
-        <v>0.0004780424103998616</v>
+        <v>0.0004703961867034368</v>
       </c>
       <c r="J6">
-        <v>0.0004780424103998616</v>
+        <v>0.0004703961867034368</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.463916</v>
+        <v>8.226724333333333</v>
       </c>
       <c r="N6">
-        <v>70.39174800000001</v>
+        <v>24.680173</v>
       </c>
       <c r="O6">
-        <v>0.1350973942042957</v>
+        <v>0.06198126651953669</v>
       </c>
       <c r="P6">
-        <v>0.1350973942042956</v>
+        <v>0.06198126651953669</v>
       </c>
       <c r="Q6">
-        <v>0.7440564189706668</v>
+        <v>0.2608749130928888</v>
       </c>
       <c r="R6">
-        <v>6.696507770736002</v>
+        <v>2.347874217836</v>
       </c>
       <c r="S6">
-        <v>6.458228396416179E-05</v>
+        <v>2.915575141783945E-05</v>
       </c>
       <c r="T6">
-        <v>6.458228396416178E-05</v>
+        <v>2.915575141783945E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.03171066666666667</v>
+        <v>0.03171066666666666</v>
       </c>
       <c r="H7">
-        <v>0.09513200000000001</v>
+        <v>0.09513199999999999</v>
       </c>
       <c r="I7">
-        <v>0.0004780424103998616</v>
+        <v>0.0004703961867034368</v>
       </c>
       <c r="J7">
-        <v>0.0004780424103998616</v>
+        <v>0.0004703961867034368</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>263.722283</v>
       </c>
       <c r="O7">
-        <v>0.5061416180048238</v>
+        <v>0.6623065855236785</v>
       </c>
       <c r="P7">
-        <v>0.5061416180048237</v>
+        <v>0.6623065855236785</v>
       </c>
       <c r="Q7">
         <v>2.787603136261778</v>
@@ -883,10 +883,10 @@
         <v>25.088428226356</v>
       </c>
       <c r="S7">
-        <v>0.000241957159074712</v>
+        <v>0.000311546492258912</v>
       </c>
       <c r="T7">
-        <v>0.0002419571590747119</v>
+        <v>0.000311546492258912</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.03171066666666667</v>
+        <v>0.03171066666666666</v>
       </c>
       <c r="H8">
-        <v>0.09513200000000001</v>
+        <v>0.09513199999999999</v>
       </c>
       <c r="I8">
-        <v>0.0004780424103998616</v>
+        <v>0.0004703961867034368</v>
       </c>
       <c r="J8">
-        <v>0.0004780424103998616</v>
+        <v>0.0004703961867034368</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>62.24619000000001</v>
+        <v>36.43008433333333</v>
       </c>
       <c r="N8">
-        <v>186.73857</v>
+        <v>109.290253</v>
       </c>
       <c r="O8">
-        <v>0.3583927792848171</v>
+        <v>0.2744692388979848</v>
       </c>
       <c r="P8">
-        <v>0.358392779284817</v>
+        <v>0.2744692388979848</v>
       </c>
       <c r="Q8">
-        <v>1.97386818236</v>
+        <v>1.155222260932889</v>
       </c>
       <c r="R8">
-        <v>17.76481364124</v>
+        <v>10.397000348396</v>
       </c>
       <c r="S8">
-        <v>0.0001713269480792195</v>
+        <v>0.0001291092833450066</v>
       </c>
       <c r="T8">
-        <v>0.0001713269480792195</v>
+        <v>0.0001291092833450066</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.03171066666666667</v>
+        <v>0.03171066666666666</v>
       </c>
       <c r="H9">
-        <v>0.09513200000000001</v>
+        <v>0.09513199999999999</v>
       </c>
       <c r="I9">
-        <v>0.0004780424103998616</v>
+        <v>0.0004703961867034368</v>
       </c>
       <c r="J9">
-        <v>0.0004780424103998616</v>
+        <v>0.0004703961867034368</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.06395099999999999</v>
+        <v>0.1649703333333333</v>
       </c>
       <c r="N9">
-        <v>0.191853</v>
+        <v>0.494911</v>
       </c>
       <c r="O9">
-        <v>0.0003682085060634768</v>
+        <v>0.00124290905879997</v>
       </c>
       <c r="P9">
-        <v>0.0003682085060634768</v>
+        <v>0.00124290905879997</v>
       </c>
       <c r="Q9">
-        <v>0.002027928844</v>
+        <v>0.005231319250222222</v>
       </c>
       <c r="R9">
-        <v>0.018251359596</v>
+        <v>0.04708187325199999</v>
       </c>
       <c r="S9">
-        <v>1.760192817683165E-07</v>
+        <v>5.846596816786634E-07</v>
       </c>
       <c r="T9">
-        <v>1.760192817683165E-07</v>
+        <v>5.846596816786634E-07</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.131391333333333</v>
+        <v>2.162051666666667</v>
       </c>
       <c r="H10">
-        <v>6.394174</v>
+        <v>6.486155</v>
       </c>
       <c r="I10">
-        <v>0.03213100062519577</v>
+        <v>0.03207188515291837</v>
       </c>
       <c r="J10">
-        <v>0.03213100062519577</v>
+        <v>0.03207188515291837</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.463916</v>
+        <v>8.226724333333333</v>
       </c>
       <c r="N10">
-        <v>70.39174800000001</v>
+        <v>24.680173</v>
       </c>
       <c r="O10">
-        <v>0.1350973942042957</v>
+        <v>0.06198126651953669</v>
       </c>
       <c r="P10">
-        <v>0.1350973942042956</v>
+        <v>0.06198126651953669</v>
       </c>
       <c r="Q10">
-        <v>50.01078720846133</v>
+        <v>17.78660305609056</v>
       </c>
       <c r="R10">
-        <v>450.097084876152</v>
+        <v>160.079427504815</v>
       </c>
       <c r="S10">
-        <v>0.004340814457640544</v>
+        <v>0.001987856061447005</v>
       </c>
       <c r="T10">
-        <v>0.004340814457640543</v>
+        <v>0.001987856061447005</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.131391333333333</v>
+        <v>2.162051666666667</v>
       </c>
       <c r="H11">
-        <v>6.394174</v>
+        <v>6.486155</v>
       </c>
       <c r="I11">
-        <v>0.03213100062519577</v>
+        <v>0.03207188515291837</v>
       </c>
       <c r="J11">
-        <v>0.03213100062519577</v>
+        <v>0.03207188515291837</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>263.722283</v>
       </c>
       <c r="O11">
-        <v>0.5061416180048238</v>
+        <v>0.6623065855236785</v>
       </c>
       <c r="P11">
-        <v>0.5061416180048237</v>
+        <v>0.6623065855236785</v>
       </c>
       <c r="Q11">
-        <v>187.3651294643602</v>
+        <v>190.0604004990961</v>
       </c>
       <c r="R11">
-        <v>1686.286165179242</v>
+        <v>1710.543604491865</v>
       </c>
       <c r="S11">
-        <v>0.01626283664455059</v>
+        <v>0.02124142074693692</v>
       </c>
       <c r="T11">
-        <v>0.01626283664455059</v>
+        <v>0.02124142074693692</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.131391333333333</v>
+        <v>2.162051666666667</v>
       </c>
       <c r="H12">
-        <v>6.394174</v>
+        <v>6.486155</v>
       </c>
       <c r="I12">
-        <v>0.03213100062519577</v>
+        <v>0.03207188515291837</v>
       </c>
       <c r="J12">
-        <v>0.03213100062519577</v>
+        <v>0.03207188515291837</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>62.24619000000001</v>
+        <v>36.43008433333333</v>
       </c>
       <c r="N12">
-        <v>186.73857</v>
+        <v>109.290253</v>
       </c>
       <c r="O12">
-        <v>0.3583927792848171</v>
+        <v>0.2744692388979848</v>
       </c>
       <c r="P12">
-        <v>0.358392779284817</v>
+        <v>0.2744692388979848</v>
       </c>
       <c r="Q12">
-        <v>132.67098989902</v>
+        <v>78.76372454969055</v>
       </c>
       <c r="R12">
-        <v>1194.03890909118</v>
+        <v>708.8735209472151</v>
       </c>
       <c r="S12">
-        <v>0.01151551861526611</v>
+        <v>0.008802745907945083</v>
       </c>
       <c r="T12">
-        <v>0.0115155186152661</v>
+        <v>0.008802745907945083</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.131391333333333</v>
+        <v>2.162051666666667</v>
       </c>
       <c r="H13">
-        <v>6.394174</v>
+        <v>6.486155</v>
       </c>
       <c r="I13">
-        <v>0.03213100062519577</v>
+        <v>0.03207188515291837</v>
       </c>
       <c r="J13">
-        <v>0.03213100062519577</v>
+        <v>0.03207188515291837</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.06395099999999999</v>
+        <v>0.1649703333333333</v>
       </c>
       <c r="N13">
-        <v>0.191853</v>
+        <v>0.494911</v>
       </c>
       <c r="O13">
-        <v>0.0003682085060634768</v>
+        <v>0.00124290905879997</v>
       </c>
       <c r="P13">
-        <v>0.0003682085060634768</v>
+        <v>0.00124290905879997</v>
       </c>
       <c r="Q13">
-        <v>0.136304607158</v>
+        <v>0.3566743841338889</v>
       </c>
       <c r="R13">
-        <v>1.226741464422</v>
+        <v>3.210069457205</v>
       </c>
       <c r="S13">
-        <v>1.183090773852798E-05</v>
+        <v>3.986243658935448E-05</v>
       </c>
       <c r="T13">
-        <v>1.183090773852797E-05</v>
+        <v>3.986243658935448E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>10.73549533333333</v>
+        <v>13.28262333333333</v>
       </c>
       <c r="H14">
-        <v>32.206486</v>
+        <v>39.84787</v>
       </c>
       <c r="I14">
-        <v>0.1618389837063175</v>
+        <v>0.1970345004441647</v>
       </c>
       <c r="J14">
-        <v>0.1618389837063175</v>
+        <v>0.1970345004441647</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.463916</v>
+        <v>8.226724333333333</v>
       </c>
       <c r="N14">
-        <v>70.39174800000001</v>
+        <v>24.680173</v>
       </c>
       <c r="O14">
-        <v>0.1350973942042957</v>
+        <v>0.06198126651953669</v>
       </c>
       <c r="P14">
-        <v>0.1350973942042956</v>
+        <v>0.06198126651953669</v>
       </c>
       <c r="Q14">
-        <v>251.8967607197253</v>
+        <v>109.2724805868344</v>
       </c>
       <c r="R14">
-        <v>2267.070846477528</v>
+        <v>983.45232528151</v>
       </c>
       <c r="S14">
-        <v>0.02186402497939496</v>
+        <v>0.01221244788557354</v>
       </c>
       <c r="T14">
-        <v>0.02186402497939495</v>
+        <v>0.01221244788557354</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>10.73549533333333</v>
+        <v>13.28262333333333</v>
       </c>
       <c r="H15">
-        <v>32.206486</v>
+        <v>39.84787</v>
       </c>
       <c r="I15">
-        <v>0.1618389837063175</v>
+        <v>0.1970345004441647</v>
       </c>
       <c r="J15">
-        <v>0.1618389837063175</v>
+        <v>0.1970345004441647</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>263.722283</v>
       </c>
       <c r="O15">
-        <v>0.5061416180048238</v>
+        <v>0.6623065855236785</v>
       </c>
       <c r="P15">
-        <v>0.5061416180048237</v>
+        <v>0.6623065855236785</v>
       </c>
       <c r="Q15">
-        <v>943.7297794808375</v>
+        <v>1167.641249898579</v>
       </c>
       <c r="R15">
-        <v>8493.568015327537</v>
+        <v>10508.77124908721</v>
       </c>
       <c r="S15">
-        <v>0.08191344506937184</v>
+        <v>0.1304972472195385</v>
       </c>
       <c r="T15">
-        <v>0.08191344506937184</v>
+        <v>0.1304972472195385</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>10.73549533333333</v>
+        <v>13.28262333333333</v>
       </c>
       <c r="H16">
-        <v>32.206486</v>
+        <v>39.84787</v>
       </c>
       <c r="I16">
-        <v>0.1618389837063175</v>
+        <v>0.1970345004441647</v>
       </c>
       <c r="J16">
-        <v>0.1618389837063175</v>
+        <v>0.1970345004441647</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>62.24619000000001</v>
+        <v>36.43008433333333</v>
       </c>
       <c r="N16">
-        <v>186.73857</v>
+        <v>109.290253</v>
       </c>
       <c r="O16">
-        <v>0.3583927792848171</v>
+        <v>0.2744692388979848</v>
       </c>
       <c r="P16">
-        <v>0.358392779284817</v>
+        <v>0.2744692388979848</v>
       </c>
       <c r="Q16">
-        <v>668.24368226278</v>
+        <v>483.8870882012345</v>
       </c>
       <c r="R16">
-        <v>6014.19314036502</v>
+        <v>4354.98379381111</v>
       </c>
       <c r="S16">
-        <v>0.05800192316713734</v>
+        <v>0.05407990937355454</v>
       </c>
       <c r="T16">
-        <v>0.05800192316713734</v>
+        <v>0.05407990937355454</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>10.73549533333333</v>
+        <v>13.28262333333333</v>
       </c>
       <c r="H17">
-        <v>32.206486</v>
+        <v>39.84787</v>
       </c>
       <c r="I17">
-        <v>0.1618389837063175</v>
+        <v>0.1970345004441647</v>
       </c>
       <c r="J17">
-        <v>0.1618389837063175</v>
+        <v>0.1970345004441647</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.06395099999999999</v>
+        <v>0.1649703333333333</v>
       </c>
       <c r="N17">
-        <v>0.191853</v>
+        <v>0.494911</v>
       </c>
       <c r="O17">
-        <v>0.0003682085060634768</v>
+        <v>0.00124290905879997</v>
       </c>
       <c r="P17">
-        <v>0.0003682085060634768</v>
+        <v>0.00124290905879997</v>
       </c>
       <c r="Q17">
-        <v>0.6865456620619999</v>
+        <v>2.191238798841111</v>
       </c>
       <c r="R17">
-        <v>6.178910958557999</v>
+        <v>19.72114918957</v>
       </c>
       <c r="S17">
-        <v>5.959049041333453E-05</v>
+        <v>0.000244895965498179</v>
       </c>
       <c r="T17">
-        <v>5.959049041333453E-05</v>
+        <v>0.000244895965498179</v>
       </c>
     </row>
   </sheetData>
